--- a/assets/temp_excel/template_upload_saldo_cuti.xlsx
+++ b/assets/temp_excel/template_upload_saldo_cuti.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\indra.wtq00282\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\raisa\assets\temp_excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="15">
   <si>
     <t>NPK</t>
   </si>
@@ -39,6 +39,36 @@
   </si>
   <si>
     <t>EXPIRED    (yyyy-MM-dd)</t>
+  </si>
+  <si>
+    <t>0282</t>
+  </si>
+  <si>
+    <t>TAHUNAN</t>
+  </si>
+  <si>
+    <t>Cuti Tahunan 2022</t>
+  </si>
+  <si>
+    <t>2022-12-31</t>
+  </si>
+  <si>
+    <t>BESAR</t>
+  </si>
+  <si>
+    <t>Cuti Masa kerja 5 Tahun</t>
+  </si>
+  <si>
+    <t>2027-12-31</t>
+  </si>
+  <si>
+    <t>TABUNGAN</t>
+  </si>
+  <si>
+    <t>Cuti Tabungan</t>
+  </si>
+  <si>
+    <t>2022-03-31</t>
   </si>
 </sst>
 </file>
@@ -358,18 +388,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E1"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.140625" style="1"/>
-    <col min="2" max="2" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9.140625" style="2"/>
-    <col min="4" max="4" width="18.140625" customWidth="1"/>
+    <col min="4" max="4" width="22.140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="23" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -390,6 +420,57 @@
         <v>4</v>
       </c>
     </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="2">
+        <v>12</v>
+      </c>
+      <c r="D2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="2">
+        <v>20</v>
+      </c>
+      <c r="D3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="2">
+        <v>2</v>
+      </c>
+      <c r="D4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/assets/temp_excel/template_upload_saldo_cuti.xlsx
+++ b/assets/temp_excel/template_upload_saldo_cuti.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="18">
   <si>
     <t>NPK</t>
   </si>
@@ -69,6 +69,15 @@
   </si>
   <si>
     <t>2022-03-31</t>
+  </si>
+  <si>
+    <t>VALID    (yyyy-MM-dd)</t>
+  </si>
+  <si>
+    <t>2021-12-01</t>
+  </si>
+  <si>
+    <t>2021-03-01</t>
   </si>
 </sst>
 </file>
@@ -388,10 +397,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -400,10 +409,11 @@
     <col min="2" max="2" width="11.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9.140625" style="2"/>
     <col min="4" max="4" width="22.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="23" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22.140625" customWidth="1"/>
+    <col min="6" max="6" width="23" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -417,10 +427,13 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
@@ -434,10 +447,13 @@
         <v>7</v>
       </c>
       <c r="E2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
@@ -445,16 +461,19 @@
         <v>9</v>
       </c>
       <c r="C3" s="2">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D3" t="s">
         <v>10</v>
       </c>
       <c r="E3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F3" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
@@ -462,12 +481,15 @@
         <v>12</v>
       </c>
       <c r="C4" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D4" t="s">
         <v>13</v>
       </c>
       <c r="E4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F4" s="1" t="s">
         <v>14</v>
       </c>
     </row>

--- a/assets/temp_excel/template_upload_saldo_cuti.xlsx
+++ b/assets/temp_excel/template_upload_saldo_cuti.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="17">
   <si>
     <t>NPK</t>
   </si>
@@ -38,9 +38,6 @@
     <t>KETERANGAN</t>
   </si>
   <si>
-    <t>EXPIRED    (yyyy-MM-dd)</t>
-  </si>
-  <si>
     <t>0282</t>
   </si>
   <si>
@@ -50,34 +47,34 @@
     <t>Cuti Tahunan 2022</t>
   </si>
   <si>
-    <t>2022-12-31</t>
-  </si>
-  <si>
     <t>BESAR</t>
   </si>
   <si>
     <t>Cuti Masa kerja 5 Tahun</t>
   </si>
   <si>
-    <t>2027-12-31</t>
-  </si>
-  <si>
     <t>TABUNGAN</t>
   </si>
   <si>
     <t>Cuti Tabungan</t>
   </si>
   <si>
-    <t>2022-03-31</t>
-  </si>
-  <si>
-    <t>VALID    (yyyy-MM-dd)</t>
-  </si>
-  <si>
-    <t>2021-12-01</t>
-  </si>
-  <si>
-    <t>2021-03-01</t>
+    <t>01-12-2021</t>
+  </si>
+  <si>
+    <t>VALID    (dd-MM-yyyy)</t>
+  </si>
+  <si>
+    <t>EXPIRED    (dd-MM-yyyy)</t>
+  </si>
+  <si>
+    <t>31-12-2026</t>
+  </si>
+  <si>
+    <t>31-02-2022</t>
+  </si>
+  <si>
+    <t>31-05-2023</t>
   </si>
 </sst>
 </file>
@@ -400,7 +397,7 @@
   <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -427,70 +424,70 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" t="s">
         <v>5</v>
-      </c>
-      <c r="B2" t="s">
-        <v>6</v>
       </c>
       <c r="C2" s="2">
         <v>12</v>
       </c>
       <c r="D2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>16</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C3" s="2">
         <v>22</v>
       </c>
       <c r="D3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C4" s="2">
         <v>1</v>
       </c>
       <c r="D4" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
